--- a/data/trans_dic/P3A$personadelacasa-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3090300549000988</v>
+        <v>0.3090300549000989</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.300194072951765</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2585355052997461</v>
+        <v>0.2549278944782135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2580981257462575</v>
+        <v>0.2567692337163976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2673911966857015</v>
+        <v>0.2701194398745673</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3713732340095275</v>
+        <v>0.3656968776562027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.349658850243645</v>
+        <v>0.3497078968761493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3430382634977142</v>
+        <v>0.3441701236379125</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.3200318943508018</v>
+        <v>0.3200318943508017</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2651424765972887</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2707431046682051</v>
+        <v>0.2674191095361672</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2304377840700077</v>
+        <v>0.2319019398053987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2613276716604793</v>
+        <v>0.2600875061170607</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3818864783689305</v>
+        <v>0.3763518405067242</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3057357132172594</v>
+        <v>0.3011680870219656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292546826098288</v>
+        <v>0.3272889388042445</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.201454633389562</v>
+        <v>0.2025932272068758</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1829604423663124</v>
+        <v>0.1808382258143679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2060383387786425</v>
+        <v>0.2038455143026871</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3061787139112405</v>
+        <v>0.3053506839513023</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2647759732627871</v>
+        <v>0.2693728933529522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2709234396913126</v>
+        <v>0.2718782040138755</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1699527767624965</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1637163514097113</v>
+        <v>0.1637163514097114</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1666431190287943</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1171851755327448</v>
+        <v>0.1145489326418322</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1227828363168001</v>
+        <v>0.1163926902937914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1300115585819564</v>
+        <v>0.1307740112023493</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2494557230867628</v>
+        <v>0.2344339246688049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2245520111487467</v>
+        <v>0.2127239960585865</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2124559803073537</v>
+        <v>0.2097993253969225</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4259919977909165</v>
+        <v>0.4259919977909163</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4715784691702512</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3647902701230127</v>
+        <v>0.3673683082185294</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4246539583325334</v>
+        <v>0.4250652726084264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4114693843044975</v>
+        <v>0.4130199884955014</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4885737411810746</v>
+        <v>0.4867178688607082</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5206761255323957</v>
+        <v>0.5218682946798215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4884370774403406</v>
+        <v>0.4890628352699085</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2109453212004488</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2391559201592287</v>
+        <v>0.2391559201592285</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.224867021047391</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1682343626733553</v>
+        <v>0.1706809427727891</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1959709796477906</v>
+        <v>0.1913611634514082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.190351797348104</v>
+        <v>0.1911642489378607</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2616664147659916</v>
+        <v>0.2614600208618174</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2908587684842055</v>
+        <v>0.2842939180372303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2577724775956636</v>
+        <v>0.2570093284176007</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2475938832132349</v>
+        <v>0.2473944908382402</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2387811738679131</v>
+        <v>0.235023487944701</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2551250408571593</v>
+        <v>0.2552271113710057</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.33307426276597</v>
+        <v>0.3326167794603914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3056017600746608</v>
+        <v>0.3018573006645032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3088475310096097</v>
+        <v>0.3081731904515289</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.2632110083680689</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.2159599194278328</v>
+        <v>0.2159599194278327</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2391032167835722</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2303297784975778</v>
+        <v>0.2281011075068123</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1899899511937653</v>
+        <v>0.1887082492799542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2160889299890119</v>
+        <v>0.216063707053664</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3011495372309161</v>
+        <v>0.3015139208012251</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2473832514579925</v>
+        <v>0.2463996470707895</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2619738437740313</v>
+        <v>0.2629082891230022</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82433</v>
+        <v>81282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>81575</v>
+        <v>81155</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>169768</v>
+        <v>171500</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>118410</v>
+        <v>116601</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>110514</v>
+        <v>110529</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>217797</v>
+        <v>218516</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>143669</v>
+        <v>141905</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>125933</v>
+        <v>126733</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>281487</v>
+        <v>280151</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>202647</v>
+        <v>199710</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>167083</v>
+        <v>164587</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>354654</v>
+        <v>352536</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63536</v>
+        <v>63895</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>64976</v>
+        <v>64222</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>138153</v>
+        <v>136682</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96564</v>
+        <v>96303</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94031</v>
+        <v>95664</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>181660</v>
+        <v>182300</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43727</v>
+        <v>42743</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51810</v>
+        <v>49113</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>103373</v>
+        <v>103979</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93083</v>
+        <v>87478</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>94752</v>
+        <v>89761</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>168925</v>
+        <v>166813</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>74848</v>
+        <v>75377</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97211</v>
+        <v>97305</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>178618</v>
+        <v>179292</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>100246</v>
+        <v>99865</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>119192</v>
+        <v>119465</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>212030</v>
+        <v>212302</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45542</v>
+        <v>46205</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>51687</v>
+        <v>50472</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>101735</v>
+        <v>102169</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>70835</v>
+        <v>70779</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>76714</v>
+        <v>74983</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>137768</v>
+        <v>137360</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>178190</v>
+        <v>178047</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>184353</v>
+        <v>181452</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>380581</v>
+        <v>380734</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>239709</v>
+        <v>239380</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>235942</v>
+        <v>233051</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>460721</v>
+        <v>459716</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>183820</v>
+        <v>182041</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>157945</v>
+        <v>156879</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>352096</v>
+        <v>352055</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>240339</v>
+        <v>240630</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>205657</v>
+        <v>204840</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>426861</v>
+        <v>428384</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
     </row>
     <row r="40">
